--- a/doc/运单管理20161023.xlsx
+++ b/doc/运单管理20161023.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ToRUN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\website\trade\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550" tabRatio="784" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550" tabRatio="784" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="运单上传模板" sheetId="19" r:id="rId1"/>
@@ -446,8 +446,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,12 +611,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -626,16 +620,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,20 +650,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2920,7 +2920,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="8" width="9" style="1"/>
     <col min="9" max="12" width="17.25" style="1" bestFit="1" customWidth="1"/>
@@ -2930,8 +2930,8 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2983,8 +2983,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:17">
+      <c r="A2" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3047,11 +3047,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="4.25" style="5" customWidth="1"/>
@@ -3062,7 +3062,7 @@
     <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
@@ -3081,203 +3081,203 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:6">
+      <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="11" t="s">
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-      <c r="F17" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9" t="s">
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="10">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="2" t="s">
@@ -3290,243 +3290,250 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="13" t="s">
+    <row r="26" spans="1:6">
+      <c r="B26" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="10">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10">
-        <v>1</v>
-      </c>
-      <c r="F26" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="13" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="13" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10">
-        <v>1</v>
-      </c>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="13" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10">
-        <v>1</v>
-      </c>
-      <c r="F29" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="13" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="10">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10">
-        <v>1</v>
-      </c>
-      <c r="F30" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="13" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10">
-        <v>1</v>
-      </c>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="13" t="s">
+      <c r="C31" s="14"/>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="10">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10">
-        <v>1</v>
-      </c>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="13" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="10">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10">
-        <v>1</v>
-      </c>
-      <c r="F33" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="13" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="8">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="10">
-        <v>1</v>
-      </c>
-      <c r="E34" s="10">
-        <v>1</v>
-      </c>
-      <c r="F34" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="13" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="8">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="10">
-        <v>1</v>
-      </c>
-      <c r="E35" s="10">
-        <v>1</v>
-      </c>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="13" t="s">
+      <c r="C35" s="14"/>
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="10">
-        <v>1</v>
-      </c>
-      <c r="E36" s="10">
-        <v>1</v>
-      </c>
-      <c r="F36" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="13" t="s">
+      <c r="C36" s="14"/>
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="10">
-        <v>1</v>
-      </c>
-      <c r="E37" s="10">
-        <v>1</v>
-      </c>
-      <c r="F37" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="13" t="s">
+      <c r="C37" s="14"/>
+      <c r="D37" s="8">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="10">
-        <v>1</v>
-      </c>
-      <c r="E38" s="10">
-        <v>1</v>
-      </c>
-      <c r="F38" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="14" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="8">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1</v>
+      </c>
+      <c r="F38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="10">
-        <v>1</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="14" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="8">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="10">
-        <v>1</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="14" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="8">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="10">
-        <v>1</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="8">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B37:C37"/>
@@ -3543,13 +3550,6 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3562,10 +3562,10 @@
   <dimension ref="D16:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:S24"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="9" style="4"/>
     <col min="4" max="15" width="7.25" style="4" customWidth="1"/>
@@ -3575,57 +3575,57 @@
     <col min="20" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="16" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D16" s="10" t="s">
+    <row r="16" spans="4:19">
+      <c r="D16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P16" s="19" t="s">
+      <c r="P16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="19" t="s">
+      <c r="Q16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="R16" s="19" t="s">
+      <c r="R16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="S16" s="19" t="s">
+      <c r="S16" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:19">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -3643,7 +3643,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:19">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -3661,7 +3661,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:19">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -3679,7 +3679,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:19">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -3697,261 +3697,267 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="24" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E24" s="6" t="s">
+    <row r="24" spans="4:19">
+      <c r="E24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-    </row>
-    <row r="25" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-    </row>
-    <row r="26" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E26" s="6" t="s">
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+    </row>
+    <row r="25" spans="4:19">
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+    </row>
+    <row r="26" spans="4:19">
+      <c r="E26" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-    </row>
-    <row r="27" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-    </row>
-    <row r="28" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-    </row>
-    <row r="29" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E29" s="6" t="s">
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+    </row>
+    <row r="27" spans="4:19">
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+    </row>
+    <row r="28" spans="4:19">
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+    </row>
+    <row r="29" spans="4:19">
+      <c r="E29" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-    </row>
-    <row r="30" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-    </row>
-    <row r="31" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E31" s="6" t="s">
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+    </row>
+    <row r="30" spans="4:19">
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+    </row>
+    <row r="31" spans="4:19">
+      <c r="E31" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-    </row>
-    <row r="32" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-    </row>
-    <row r="33" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-    </row>
-    <row r="34" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E34" s="6" t="s">
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+    </row>
+    <row r="32" spans="4:19">
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+    </row>
+    <row r="33" spans="5:19">
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+    </row>
+    <row r="34" spans="5:19">
+      <c r="E34" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-    </row>
-    <row r="35" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-    </row>
-    <row r="36" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-    </row>
-    <row r="37" spans="5:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+    </row>
+    <row r="35" spans="5:19">
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+    </row>
+    <row r="36" spans="5:19">
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+    </row>
+    <row r="37" spans="5:19" ht="28.5" customHeight="1">
       <c r="E37" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-    </row>
-    <row r="38" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+    </row>
+    <row r="38" spans="5:19">
       <c r="E38" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E29:S29"/>
+    <mergeCell ref="E24:S24"/>
+    <mergeCell ref="E25:S25"/>
+    <mergeCell ref="E26:S26"/>
+    <mergeCell ref="E27:S27"/>
+    <mergeCell ref="E28:S28"/>
     <mergeCell ref="E36:S36"/>
     <mergeCell ref="E37:S37"/>
     <mergeCell ref="E30:S30"/>
@@ -3960,12 +3966,6 @@
     <mergeCell ref="E33:S33"/>
     <mergeCell ref="E34:S34"/>
     <mergeCell ref="E35:S35"/>
-    <mergeCell ref="E24:S24"/>
-    <mergeCell ref="E25:S25"/>
-    <mergeCell ref="E26:S26"/>
-    <mergeCell ref="E27:S27"/>
-    <mergeCell ref="E28:S28"/>
-    <mergeCell ref="E29:S29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3977,16 +3977,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D16:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="16" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:15">
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:15">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -4038,7 +4038,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:15">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -4052,7 +4052,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:15">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -4066,7 +4066,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:15">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -4080,17 +4080,17 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:15">
       <c r="H24" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:15">
       <c r="H25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:15">
       <c r="H26" s="5" t="s">
         <v>86</v>
       </c>
@@ -4110,7 +4110,7 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="9" style="5"/>
     <col min="4" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
@@ -4126,33 +4126,33 @@
     <col min="20" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D11" s="10" t="s">
+    <row r="11" spans="4:11">
+      <c r="D11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:11">
       <c r="D12" s="2" t="s">
         <v>63</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:11">
       <c r="D13" s="2" t="s">
         <v>63</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:11">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -4225,11 +4225,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="9" style="5"/>
     <col min="4" max="11" width="8.75" style="5" customWidth="1"/>
@@ -4250,11 +4250,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="9" style="5"/>
     <col min="4" max="11" width="8.75" style="5" customWidth="1"/>
@@ -4275,11 +4275,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D8:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="9" style="5"/>
     <col min="4" max="4" width="30" style="5" customWidth="1"/>
@@ -4292,337 +4292,337 @@
     <col min="18" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D8" s="20" t="s">
+    <row r="8" spans="4:11">
+      <c r="D8" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D10" s="21" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="4:11">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="4:11">
+      <c r="D10" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="E10" s="23"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="4:11">
       <c r="D11" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="4:11">
       <c r="D12" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D13" s="7" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="4:11">
+      <c r="D13" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D14" s="7" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="4:11">
+      <c r="D14" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D16" s="20" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="4:11">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="4:11">
+      <c r="D16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="4:11">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="4:11">
       <c r="D18" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="4:11">
       <c r="D19" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="4:11">
       <c r="D20" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="4:11">
       <c r="D21" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-    </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-    </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-    </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-    </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-    </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="4:11">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="4:11">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="4:11">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="4:11">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="4:11">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="4:11">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="4:11">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="4:11">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="4:11">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="4:11">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="4:11">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="4:11">
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="4:11">
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="4:11">
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="4:11">
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="4:11">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4632,6 +4632,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>